--- a/datasets/Fernandez21_data.xlsx
+++ b/datasets/Fernandez21_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical_new\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92412D08-B39A-4CB6-83C5-421C517B6370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410" xr2:uid="{C2D01B77-F28D-4165-B265-ED32BB77CE5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Fernandez2021</t>
   </si>
@@ -60,9 +59,6 @@
     <t>amp</t>
   </si>
   <si>
-    <t>sem</t>
-  </si>
-  <si>
     <t>2a</t>
   </si>
   <si>
@@ -73,12 +69,15 @@
   </si>
   <si>
     <t>2c</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,19 +422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01EEA1D-0318-44C3-A784-C679DD6AD528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -455,33 +454,33 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2">
         <v>9.9999999999999991E-5</v>
@@ -489,32 +488,35 @@
       <c r="F2">
         <v>300</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>0.1666</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.0799000000000003</v>
       </c>
-      <c r="J2">
-        <f>10^-6*I2/E2</f>
+      <c r="K2">
+        <f>10^-6*J2/E2</f>
         <v>8.079900000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1.6999999999999999E-4</v>
@@ -522,32 +524,35 @@
       <c r="F3">
         <v>300</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0.1666</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.7037000000000004</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="0">10^-6*I3/E3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="0">10^-6*J3/E3</f>
         <v>3.9433529411764708E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
         <v>3.9999999999999996E-4</v>
@@ -555,32 +560,35 @@
       <c r="F4">
         <v>300</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0.1666</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15.760300000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>3.9400749999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
         <v>7.9999999999999993E-4</v>
@@ -588,32 +596,35 @@
       <c r="F5">
         <v>300</v>
       </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0.1666</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20.1998</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>2.5249750000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1.6999999999999999E-4</v>
@@ -621,32 +632,35 @@
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>2</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>0.1666</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13.9749</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>8.2205294117647057E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1.6999999999999999E-4</v>
@@ -654,32 +668,35 @@
       <c r="F7">
         <v>200</v>
       </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="G7" t="s">
+        <v>2</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0.1666</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9.2680000000000007</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>5.4517647058823532E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1.6999999999999999E-4</v>
@@ -687,32 +704,35 @@
       <c r="F8">
         <v>300</v>
       </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>2</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.1666</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6.5678000000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>3.8634117647058826E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1.6999999999999999E-4</v>
@@ -720,32 +740,35 @@
       <c r="F9">
         <v>300</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0.05</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14.0167</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>8.2451176470588236E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1.6999999999999999E-4</v>
@@ -753,32 +776,35 @@
       <c r="F10">
         <v>300</v>
       </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.6197999999999997</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>5.0704705882352943E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1.6999999999999999E-4</v>
@@ -786,16 +812,19 @@
       <c r="F11">
         <v>300</v>
       </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0.1666</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6.5221</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>3.836529411764706E-2</v>
       </c>

--- a/datasets/Fernandez21_data.xlsx
+++ b/datasets/Fernandez21_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical_new\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF2BEF-ABE5-403E-BDEC-7D31951AEE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18635" windowHeight="9635" xr2:uid="{C2D01B77-F28D-4165-B265-ED32BB77CE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Fernandez2021</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>amp</t>
+  </si>
+  <si>
+    <t>sem</t>
   </si>
   <si>
     <t>2a</t>
@@ -77,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,19 +426,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01EEA1D-0318-44C3-A784-C679DD6AD528}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -454,33 +458,33 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>9.9999999999999991E-5</v>
@@ -488,35 +492,32 @@
       <c r="F2">
         <v>300</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I2">
-        <v>0.1666</v>
+        <v>8.0799000000000003</v>
       </c>
       <c r="J2">
-        <v>8.0799000000000003</v>
-      </c>
-      <c r="K2">
-        <f>10^-6*J2/E2</f>
+        <f>10^-6*I2/E2</f>
         <v>8.079900000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1.6999999999999999E-4</v>
@@ -524,35 +525,32 @@
       <c r="F3">
         <v>300</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I3">
-        <v>0.1666</v>
+        <v>6.7037000000000004</v>
       </c>
       <c r="J3">
-        <v>6.7037000000000004</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="0">10^-6*J3/E3</f>
+        <f t="shared" ref="J3:J11" si="0">10^-6*I3/E3</f>
         <v>3.9433529411764708E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3.9999999999999996E-4</v>
@@ -560,35 +558,32 @@
       <c r="F4">
         <v>300</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I4">
-        <v>0.1666</v>
+        <v>15.760300000000001</v>
       </c>
       <c r="J4">
-        <v>15.760300000000001</v>
-      </c>
-      <c r="K4">
         <f t="shared" si="0"/>
         <v>3.9400749999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>7.9999999999999993E-4</v>
@@ -596,35 +591,32 @@
       <c r="F5">
         <v>300</v>
       </c>
-      <c r="G5" t="s">
-        <v>7</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I5">
-        <v>0.1666</v>
+        <v>20.1998</v>
       </c>
       <c r="J5">
-        <v>20.1998</v>
-      </c>
-      <c r="K5">
         <f t="shared" si="0"/>
         <v>2.5249750000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1.6999999999999999E-4</v>
@@ -632,35 +624,32 @@
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
-        <v>2</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I6">
-        <v>0.1666</v>
+        <v>13.9749</v>
       </c>
       <c r="J6">
-        <v>13.9749</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="0"/>
         <v>8.2205294117647057E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1.6999999999999999E-4</v>
@@ -668,35 +657,32 @@
       <c r="F7">
         <v>200</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I7">
-        <v>0.1666</v>
+        <v>9.2680000000000007</v>
       </c>
       <c r="J7">
-        <v>9.2680000000000007</v>
-      </c>
-      <c r="K7">
         <f t="shared" si="0"/>
         <v>5.4517647058823532E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1.6999999999999999E-4</v>
@@ -704,35 +690,32 @@
       <c r="F8">
         <v>300</v>
       </c>
-      <c r="G8" t="s">
-        <v>2</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I8">
-        <v>0.1666</v>
+        <v>6.5678000000000001</v>
       </c>
       <c r="J8">
-        <v>6.5678000000000001</v>
-      </c>
-      <c r="K8">
         <f t="shared" si="0"/>
         <v>3.8634117647058826E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1.6999999999999999E-4</v>
@@ -740,35 +723,32 @@
       <c r="F9">
         <v>300</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>14.0167</v>
       </c>
       <c r="J9">
-        <v>14.0167</v>
-      </c>
-      <c r="K9">
         <f t="shared" si="0"/>
         <v>8.2451176470588236E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1.6999999999999999E-4</v>
@@ -776,35 +756,32 @@
       <c r="F10">
         <v>300</v>
       </c>
-      <c r="G10" t="s">
-        <v>9</v>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.6197999999999997</v>
       </c>
       <c r="J10">
-        <v>8.6197999999999997</v>
-      </c>
-      <c r="K10">
         <f t="shared" si="0"/>
         <v>5.0704705882352943E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1.6999999999999999E-4</v>
@@ -812,19 +789,16 @@
       <c r="F11">
         <v>300</v>
       </c>
-      <c r="G11" t="s">
-        <v>9</v>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.1666</v>
       </c>
       <c r="I11">
-        <v>0.1666</v>
+        <v>6.5221</v>
       </c>
       <c r="J11">
-        <v>6.5221</v>
-      </c>
-      <c r="K11">
         <f t="shared" si="0"/>
         <v>3.836529411764706E-2</v>
       </c>
